--- a/temp.xlsx
+++ b/temp.xlsx
@@ -459,10 +459,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>4</v>
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>1</v>
@@ -531,13 +531,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>2</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>3</v>
@@ -584,10 +584,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>4</v>
@@ -603,16 +603,16 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>3</v>
@@ -628,13 +628,13 @@
         </is>
       </c>
       <c r="C10" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>1</v>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>1</v>
@@ -462,7 +462,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>4</v>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>1</v>
@@ -487,7 +487,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>3</v>
@@ -603,16 +603,16 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>3</v>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="C10" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>3</v>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
@@ -30,9 +30,16 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="&quot;Times New Roman&quot;"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -43,7 +50,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -66,27 +73,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -362,56 +426,61 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="16.88671875" customWidth="1" min="2" max="2"/>
+    <col width="12.6640625" customWidth="1" style="13" min="1" max="1"/>
+    <col width="16.88671875" customWidth="1" style="13" min="2" max="2"/>
+    <col width="12.6640625" customWidth="1" style="13" min="3" max="4"/>
+    <col width="12.6640625" customWidth="1" style="13" min="5" max="6"/>
+    <col width="12.6640625" customWidth="1" style="13" min="7" max="7"/>
+    <col width="12.6640625" customWidth="1" style="13" min="8" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="68.40000000000001" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>SL</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>Student ID</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>Relevant Knowledge
 (1)</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>Defining Problem
 Statement
 (1)</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="9" t="inlineStr">
         <is>
           <t>Use of appropriate
 method/formula
 (2)</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="9" t="inlineStr">
         <is>
           <t>Findings/
 Solution
 (1)</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="9" t="inlineStr">
         <is>
           <t>Total Marks
 (5.0)</t>
@@ -419,256 +488,1182 @@
       </c>
     </row>
     <row r="2" ht="15.6" customHeight="1">
-      <c r="A2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>201-15-13742</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0</v>
+      <c r="A2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>221-15-4661</t>
+        </is>
+      </c>
+      <c r="C2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1">
-      <c r="A3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>201-15-3045</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>4</v>
+      <c r="A3" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>221-15-4677</t>
+        </is>
+      </c>
+      <c r="C3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1">
-      <c r="A4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>201-15-3049</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="n">
+      <c r="A4" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>221-15-4764</t>
+        </is>
+      </c>
+      <c r="C4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1">
-      <c r="A5" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>201-15-3127</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>4</v>
+      <c r="A5" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>221-15-4767</t>
+        </is>
+      </c>
+      <c r="C5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>201-15-3146</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="n">
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>221-15-4770</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>201-15-3147</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="n">
+      <c r="B7" s="10" t="inlineStr">
+        <is>
+          <t>221-15-4773</t>
+        </is>
+      </c>
+      <c r="C7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" ht="13.8" customHeight="1">
+      <c r="A8" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t>221-15-4805</t>
+        </is>
+      </c>
+      <c r="C8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" ht="13.8" customHeight="1">
+      <c r="A9" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="inlineStr">
+        <is>
+          <t>221-15-4937</t>
+        </is>
+      </c>
+      <c r="C9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" ht="13.8" customHeight="1">
+      <c r="A10" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="inlineStr">
+        <is>
+          <t>221-15-4938</t>
+        </is>
+      </c>
+      <c r="C10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" ht="13.8" customHeight="1">
+      <c r="A11" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="inlineStr">
+        <is>
+          <t>221-15-4939</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <t>221-15-4988</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="inlineStr">
+        <is>
+          <t>221-15-4995</t>
+        </is>
+      </c>
+      <c r="C13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="inlineStr">
+        <is>
+          <t>221-15-4996</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1">
-      <c r="A8" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>201-15-3153</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" ht="13.8" customHeight="1">
-      <c r="A9" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>201-15-3164</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" ht="13.8" customHeight="1">
-      <c r="A10" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>201-15-3185</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" ht="13.8" customHeight="1">
-      <c r="A11" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>201-15-3186</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4" t="n">
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="inlineStr">
+        <is>
+          <t>221-15-5008</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="inlineStr">
+        <is>
+          <t>221-15-5013</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="inlineStr">
+        <is>
+          <t>221-15-5037</t>
+        </is>
+      </c>
+      <c r="C17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="inlineStr">
+        <is>
+          <t>221-15-5268</t>
+        </is>
+      </c>
+      <c r="C18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="inlineStr">
+        <is>
+          <t>221-15-5314</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="inlineStr">
+        <is>
+          <t>221-15-5335</t>
+        </is>
+      </c>
+      <c r="C20" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="inlineStr">
+        <is>
+          <t>221-15-5336</t>
+        </is>
+      </c>
+      <c r="C21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="inlineStr">
+        <is>
+          <t>221-15-5380</t>
+        </is>
+      </c>
+      <c r="C22" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="inlineStr">
+        <is>
+          <t>221-15-5402</t>
+        </is>
+      </c>
+      <c r="C23" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="inlineStr">
+        <is>
+          <t>221-15-5438</t>
+        </is>
+      </c>
+      <c r="C24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="inlineStr">
+        <is>
+          <t>221-15-5474</t>
+        </is>
+      </c>
+      <c r="C25" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10" t="inlineStr">
+        <is>
+          <t>221-15-5517</t>
+        </is>
+      </c>
+      <c r="C26" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="inlineStr">
+        <is>
+          <t>221-15-5543</t>
+        </is>
+      </c>
+      <c r="C27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="inlineStr">
+        <is>
+          <t>221-15-5551</t>
+        </is>
+      </c>
+      <c r="C28" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10" t="inlineStr">
+        <is>
+          <t>221-15-5565</t>
+        </is>
+      </c>
+      <c r="C29" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10" t="inlineStr">
+        <is>
+          <t>221-15-5574</t>
+        </is>
+      </c>
+      <c r="C30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="10" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10" t="inlineStr">
+        <is>
+          <t>221-15-5584</t>
+        </is>
+      </c>
+      <c r="C31" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10" t="inlineStr">
+        <is>
+          <t>221-15-5586</t>
+        </is>
+      </c>
+      <c r="C32" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10" t="inlineStr">
+        <is>
+          <t>221-15-5620</t>
+        </is>
+      </c>
+      <c r="C33" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10" t="inlineStr">
+        <is>
+          <t>221-15-5633</t>
+        </is>
+      </c>
+      <c r="C34" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10" t="inlineStr">
+        <is>
+          <t>221-15-5662</t>
+        </is>
+      </c>
+      <c r="C35" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10" t="inlineStr">
+        <is>
+          <t>221-15-5678</t>
+        </is>
+      </c>
+      <c r="C36" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10" t="inlineStr">
+        <is>
+          <t>221-15-5712</t>
+        </is>
+      </c>
+      <c r="C37" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="10" t="inlineStr">
+        <is>
+          <t>221-15-5720</t>
+        </is>
+      </c>
+      <c r="C38" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="10" t="inlineStr">
+        <is>
+          <t>221-15-5755</t>
+        </is>
+      </c>
+      <c r="C39" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="10" t="inlineStr">
+        <is>
+          <t>221-15-5756</t>
+        </is>
+      </c>
+      <c r="C40" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="10" t="inlineStr">
+        <is>
+          <t>221-15-5791</t>
+        </is>
+      </c>
+      <c r="C41" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="10" t="inlineStr">
+        <is>
+          <t>221-15-5801</t>
+        </is>
+      </c>
+      <c r="C42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="10" t="inlineStr">
+        <is>
+          <t>221-15-5808</t>
+        </is>
+      </c>
+      <c r="C43" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="11" t="inlineStr">
+        <is>
+          <t>221-15-5817</t>
+        </is>
+      </c>
+      <c r="C44" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="8" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="12" t="inlineStr">
+        <is>
+          <t>221-15-5847</t>
+        </is>
+      </c>
+      <c r="C45" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="12" t="inlineStr">
+        <is>
+          <t>221-15-5857</t>
+        </is>
+      </c>
+      <c r="C46" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="8" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="12" t="inlineStr">
+        <is>
+          <t>221-15-5876</t>
+        </is>
+      </c>
+      <c r="C47" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="8" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="12" t="inlineStr">
+        <is>
+          <t>221-15-5883</t>
+        </is>
+      </c>
+      <c r="C48" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="12" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/temp.xlsx
+++ b/temp.xlsx
@@ -106,7 +106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
@@ -130,21 +130,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -429,58 +414,56 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="12.6640625" customWidth="1" style="13" min="1" max="1"/>
-    <col width="16.88671875" customWidth="1" style="13" min="2" max="2"/>
-    <col width="12.6640625" customWidth="1" style="13" min="3" max="4"/>
-    <col width="12.6640625" customWidth="1" style="13" min="5" max="6"/>
-    <col width="12.6640625" customWidth="1" style="13" min="7" max="7"/>
-    <col width="12.6640625" customWidth="1" style="13" min="8" max="16384"/>
+    <col width="12.6640625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="16.88671875" customWidth="1" style="3" min="2" max="2"/>
+    <col width="12.6640625" customWidth="1" style="3" min="3" max="8"/>
+    <col width="12.6640625" customWidth="1" style="3" min="9" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="68.40000000000001" customHeight="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>SL</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Student ID</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Relevant Knowledge
 (1)</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Defining Problem
 Statement
 (1)</t>
         </is>
       </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Use of appropriate
 method/formula
 (2)</t>
         </is>
       </c>
-      <c r="F1" s="9" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Findings/
 Solution
 (1)</t>
         </is>
       </c>
-      <c r="G1" s="9" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Total Marks
 (5.0)</t>
@@ -491,24 +474,24 @@
       <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>221-15-4661</t>
         </is>
       </c>
-      <c r="C2" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="10" t="n">
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -516,24 +499,24 @@
       <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>221-15-4677</t>
         </is>
       </c>
-      <c r="C3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10" t="n">
+      <c r="C3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -541,24 +524,24 @@
       <c r="A4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>221-15-4764</t>
         </is>
       </c>
-      <c r="C4" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10" t="n">
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -566,24 +549,24 @@
       <c r="A5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>221-15-4767</t>
         </is>
       </c>
-      <c r="C5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="10" t="n">
+      <c r="C5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -591,24 +574,24 @@
       <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>221-15-4770</t>
         </is>
       </c>
-      <c r="C6" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10" t="n">
+      <c r="C6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -616,24 +599,24 @@
       <c r="A7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>221-15-4773</t>
         </is>
       </c>
-      <c r="C7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10" t="n">
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -641,24 +624,24 @@
       <c r="A8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>221-15-4805</t>
         </is>
       </c>
-      <c r="C8" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10" t="n">
+      <c r="C8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -666,24 +649,24 @@
       <c r="A9" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>221-15-4937</t>
         </is>
       </c>
-      <c r="C9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10" t="n">
+      <c r="C9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -691,24 +674,24 @@
       <c r="A10" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>221-15-4938</t>
         </is>
       </c>
-      <c r="C10" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="10" t="n">
+      <c r="C10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -716,24 +699,24 @@
       <c r="A11" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>221-15-4939</t>
         </is>
       </c>
-      <c r="C11" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="10" t="n">
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -741,24 +724,24 @@
       <c r="A12" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>221-15-4988</t>
         </is>
       </c>
-      <c r="C12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="10" t="n">
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -766,24 +749,24 @@
       <c r="A13" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>221-15-4995</t>
         </is>
       </c>
-      <c r="C13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="10" t="n">
+      <c r="C13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -791,24 +774,24 @@
       <c r="A14" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>221-15-4996</t>
         </is>
       </c>
-      <c r="C14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="10" t="n">
+      <c r="C14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -816,24 +799,24 @@
       <c r="A15" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>221-15-5008</t>
         </is>
       </c>
-      <c r="C15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="10" t="n">
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -841,24 +824,24 @@
       <c r="A16" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>221-15-5013</t>
         </is>
       </c>
-      <c r="C16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="10" t="n">
+      <c r="C16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -866,24 +849,24 @@
       <c r="A17" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>221-15-5037</t>
         </is>
       </c>
-      <c r="C17" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="10" t="n">
+      <c r="C17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -891,24 +874,24 @@
       <c r="A18" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>221-15-5268</t>
         </is>
       </c>
-      <c r="C18" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F18" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="10" t="n">
+      <c r="C18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -916,24 +899,24 @@
       <c r="A19" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>221-15-5314</t>
         </is>
       </c>
-      <c r="C19" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="10" t="n">
+      <c r="C19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -941,24 +924,24 @@
       <c r="A20" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>221-15-5335</t>
         </is>
       </c>
-      <c r="C20" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="10" t="n">
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -966,24 +949,24 @@
       <c r="A21" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>221-15-5336</t>
         </is>
       </c>
-      <c r="C21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F21" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="10" t="n">
+      <c r="C21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -991,24 +974,24 @@
       <c r="A22" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>221-15-5380</t>
         </is>
       </c>
-      <c r="C22" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="10" t="n">
+      <c r="C22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1016,24 +999,24 @@
       <c r="A23" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>221-15-5402</t>
         </is>
       </c>
-      <c r="C23" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="10" t="n">
+      <c r="C23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1041,24 +1024,24 @@
       <c r="A24" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>221-15-5438</t>
         </is>
       </c>
-      <c r="C24" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="10" t="n">
+      <c r="C24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1066,24 +1049,24 @@
       <c r="A25" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>221-15-5474</t>
         </is>
       </c>
-      <c r="C25" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F25" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="10" t="n">
+      <c r="C25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1091,24 +1074,24 @@
       <c r="A26" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>221-15-5517</t>
         </is>
       </c>
-      <c r="C26" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F26" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="10" t="n">
+      <c r="C26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1116,24 +1099,24 @@
       <c r="A27" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>221-15-5543</t>
         </is>
       </c>
-      <c r="C27" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="10" t="n">
+      <c r="C27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1141,24 +1124,24 @@
       <c r="A28" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>221-15-5551</t>
         </is>
       </c>
-      <c r="C28" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="10" t="n">
+      <c r="C28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1166,24 +1149,24 @@
       <c r="A29" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="10" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>221-15-5565</t>
         </is>
       </c>
-      <c r="C29" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="10" t="n">
+      <c r="C29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1191,24 +1174,24 @@
       <c r="A30" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="10" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>221-15-5574</t>
         </is>
       </c>
-      <c r="C30" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="10" t="n">
+      <c r="C30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1216,24 +1199,24 @@
       <c r="A31" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="10" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>221-15-5584</t>
         </is>
       </c>
-      <c r="C31" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F31" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="10" t="n">
+      <c r="C31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1241,24 +1224,24 @@
       <c r="A32" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>221-15-5586</t>
         </is>
       </c>
-      <c r="C32" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F32" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="10" t="n">
+      <c r="C32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1266,24 +1249,24 @@
       <c r="A33" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="10" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>221-15-5620</t>
         </is>
       </c>
-      <c r="C33" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="10" t="n">
+      <c r="C33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1291,24 +1274,24 @@
       <c r="A34" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="10" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>221-15-5633</t>
         </is>
       </c>
-      <c r="C34" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F34" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="10" t="n">
+      <c r="C34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1316,24 +1299,24 @@
       <c r="A35" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="10" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>221-15-5662</t>
         </is>
       </c>
-      <c r="C35" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F35" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="10" t="n">
+      <c r="C35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1341,24 +1324,24 @@
       <c r="A36" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="10" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>221-15-5678</t>
         </is>
       </c>
-      <c r="C36" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F36" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="10" t="n">
+      <c r="C36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1366,24 +1349,24 @@
       <c r="A37" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="10" t="inlineStr">
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>221-15-5712</t>
         </is>
       </c>
-      <c r="C37" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="10" t="n">
+      <c r="C37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1391,24 +1374,24 @@
       <c r="A38" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="10" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>221-15-5720</t>
         </is>
       </c>
-      <c r="C38" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="10" t="n">
+      <c r="C38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1416,24 +1399,24 @@
       <c r="A39" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="10" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>221-15-5755</t>
         </is>
       </c>
-      <c r="C39" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="10" t="n">
+      <c r="C39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1441,24 +1424,24 @@
       <c r="A40" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="10" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>221-15-5756</t>
         </is>
       </c>
-      <c r="C40" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F40" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="10" t="n">
+      <c r="C40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1466,24 +1449,24 @@
       <c r="A41" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="10" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>221-15-5791</t>
         </is>
       </c>
-      <c r="C41" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="10" t="n">
+      <c r="C41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1491,24 +1474,24 @@
       <c r="A42" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="10" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>221-15-5801</t>
         </is>
       </c>
-      <c r="C42" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F42" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="10" t="n">
+      <c r="C42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1516,24 +1499,24 @@
       <c r="A43" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="10" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>221-15-5808</t>
         </is>
       </c>
-      <c r="C43" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="10" t="n">
+      <c r="C43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1541,24 +1524,24 @@
       <c r="A44" s="7" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="11" t="inlineStr">
+      <c r="B44" s="4" t="inlineStr">
         <is>
           <t>221-15-5817</t>
         </is>
       </c>
-      <c r="C44" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="11" t="n">
+      <c r="C44" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1566,24 +1549,24 @@
       <c r="A45" s="8" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="12" t="inlineStr">
+      <c r="B45" s="5" t="inlineStr">
         <is>
           <t>221-15-5847</t>
         </is>
       </c>
-      <c r="C45" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F45" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="12" t="n">
+      <c r="C45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1591,24 +1574,24 @@
       <c r="A46" s="8" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="12" t="inlineStr">
+      <c r="B46" s="5" t="inlineStr">
         <is>
           <t>221-15-5857</t>
         </is>
       </c>
-      <c r="C46" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="12" t="n">
+      <c r="C46" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1616,24 +1599,24 @@
       <c r="A47" s="8" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="12" t="inlineStr">
+      <c r="B47" s="5" t="inlineStr">
         <is>
           <t>221-15-5876</t>
         </is>
       </c>
-      <c r="C47" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F47" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="12" t="n">
+      <c r="C47" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1641,24 +1624,24 @@
       <c r="A48" s="8" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="12" t="inlineStr">
+      <c r="B48" s="5" t="inlineStr">
         <is>
           <t>221-15-5883</t>
         </is>
       </c>
-      <c r="C48" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="12" t="n">
+      <c r="C48" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="5" t="n">
         <v>3</v>
       </c>
     </row>
